--- a/Template/Example/Оргструктура.xlsx
+++ b/Template/Example/Оргструктура.xlsx
@@ -5,11 +5,11 @@
   <x:workbookPr showInkAnnotation="0" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\import\rx-util-importdata\Template\Example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ImportData\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="480" yWindow="105" windowWidth="17100" windowHeight="9855" activeTab="1"/>
+    <x:workbookView xWindow="480" yWindow="105" windowWidth="17100" windowHeight="9855" activeTab="2"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="НашиОрганизации" sheetId="7" r:id="rId1"/>
@@ -17,11 +17,11 @@
     <x:sheet name="Сотрудники" sheetId="4" r:id="rId3"/>
   </x:sheets>
   <x:definedNames>
-    <x:definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">НашиОрганизации!$A$1:$V$3</x:definedName>
+    <x:definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">НашиОрганизации!$A$1:$W$3</x:definedName>
     <x:definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Подразделения!$A$1:$K$8</x:definedName>
     <x:definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Сотрудники!$A$1:$V$14</x:definedName>
   </x:definedNames>
-  <x:calcPr calcId="152511"/>
+  <x:calcPr calcId="152511" refMode="R1C1"/>
 </x:workbook>
 </file>
 
@@ -107,11 +107,48 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
+          <t xml:space="preserve">ФИО руководителя в формате
+"Фамилия Имя Отчество" или,
+</t>
+        </r>
+        <r>
+          <rPr>
+            <u/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>в случае отсутствия отчества</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>, "Фамилия Имя"</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
           <t>10 или 12 цифр, проверка контрольной суммы для резидентов</t>
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -125,7 +162,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -139,7 +176,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -153,7 +190,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="K1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -167,7 +204,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -181,7 +218,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0">
+    <comment ref="S1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -195,7 +232,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0">
+    <comment ref="T1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -446,7 +483,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="169">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="100">
   <x:si>
     <x:t>ИНН</x:t>
   </x:si>
@@ -553,6 +590,18 @@
     <x:t>Рабочий телефон</x:t>
   </x:si>
   <x:si>
+    <x:t>Дата</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Итог</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Подробности</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Нерезидент</x:t>
+  </x:si>
+  <x:si>
     <x:t>ТехноСистемы ЗАО</x:t>
   </x:si>
   <x:si>
@@ -577,6 +626,9 @@
     <x:t>info@tech-sys.ru</x:t>
   </x:si>
   <x:si>
+    <x:t>http://www.npo-comp.ru/</x:t>
+  </x:si>
+  <x:si>
     <x:t>Смарт-Сервис, ООО</x:t>
   </x:si>
   <x:si>
@@ -592,9 +644,6 @@
     <x:t>участник ЭДО</x:t>
   </x:si>
   <x:si>
-    <x:t>http://www.npo-comp.ru/</x:t>
-  </x:si>
-  <x:si>
     <x:t>Финансово-юридический отдел</x:t>
   </x:si>
   <x:si>
@@ -631,82 +680,55 @@
     <x:t>Отдел продаж</x:t>
   </x:si>
   <x:si>
+    <x:t>Юрист</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Законов</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Сергей</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Юрьевич</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Мужской</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05.08.1970</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Персона для труд.договора</x:t>
+  </x:si>
+  <x:si>
     <x:t>Отдел технического обслуживания</x:t>
   </x:si>
   <x:si>
-    <x:t>ОТО</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Общий отдел ООО Смарт-Сервис</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Белоусова Лидия Александровна</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ОО</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ложкина Анна Владимировна</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ардо</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Наталья</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Алексеевна</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Руководитель отдела продаж</x:t>
+    <x:t>Руководитель отдела ОТО</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Белоусова</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Лидия</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Александровна</x:t>
   </x:si>
   <x:si>
     <x:t>Женский</x:t>
   </x:si>
   <x:si>
-    <x:t>18.08.1987</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Белоусова</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Лидия</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Александровна</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Руководитель отдела ОТО</x:t>
-  </x:si>
-  <x:si>
     <x:t>Добрынин</x:t>
   </x:si>
   <x:si>
     <x:t>Никита</x:t>
   </x:si>
   <x:si>
-    <x:t>Мужской</x:t>
-  </x:si>
-  <x:si>
     <x:t>dobr@ mail.ru</x:t>
   </x:si>
   <x:si>
-    <x:t>Законов</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Сергей</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Юрьевич</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Юрист</x:t>
-  </x:si>
-  <x:si>
-    <x:t>05.08.1970</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Персона для труд.договора</x:t>
+    <x:t>Инженер</x:t>
   </x:si>
   <x:si>
     <x:t>Иванов</x:t>
@@ -718,12 +740,12 @@
     <x:t>Иванович</x:t>
   </x:si>
   <x:si>
-    <x:t>Инженер</x:t>
-  </x:si>
-  <x:si>
     <x:t>ivan@comp.ru</x:t>
   </x:si>
   <x:si>
+    <x:t>Генеральный директор</x:t>
+  </x:si>
+  <x:si>
     <x:t>Ивановский</x:t>
   </x:si>
   <x:si>
@@ -733,9 +755,6 @@
     <x:t>Александрович</x:t>
   </x:si>
   <x:si>
-    <x:t>Генеральный директор</x:t>
-  </x:si>
-  <x:si>
     <x:t>15.03.1961</x:t>
   </x:si>
   <x:si>
@@ -754,259 +773,40 @@
     <x:t>АО "РОССЕЛЬХОЗБАНК"</x:t>
   </x:si>
   <x:si>
+    <x:t>Главный инженер</x:t>
+  </x:si>
+  <x:si>
     <x:t>Коломенцев</x:t>
   </x:si>
   <x:si>
     <x:t>Петрович</x:t>
   </x:si>
   <x:si>
-    <x:t>Главный инженер</x:t>
-  </x:si>
-  <x:si>
     <x:t>05.09.1951</x:t>
   </x:si>
   <x:si>
-    <x:t>Кондратьев</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Роман</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Георгиевич</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Начальник отдела снабжения</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16.11.1974</x:t>
-  </x:si>
-  <x:si>
-    <x:t>kyzja@mail.ru</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Кузнецов</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Михаил</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Сергеевич</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Менеджер по продажам</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ложкина</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Анна</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Владимировна</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Администратор МКДО</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Охотникова</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Елена</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Сергеевна</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Делопроизводитель</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18.02.1990</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Соболева</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Надежда</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Николаевна</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Секретарь</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23.01.1976</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Сорокин</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Федор</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Андреевич</x:t>
-  </x:si>
-  <x:si>
-    <x:t>fedorS@mail.ru</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Суворова</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Екатерина</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Андреевна</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Главный бухгалтер</x:t>
-  </x:si>
-  <x:si>
-    <x:t>25.05.1972</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Дата</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Итог</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Подробности</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Не загружен</x:t>
-  </x:si>
-  <x:si>
     <x:t>Загружен</x:t>
   </x:si>
   <x:si>
-    <x:t>02.06.2021</x:t>
+    <x:t>08.02.2023</x:t>
   </x:si>
   <x:si>
     <x:t/>
   </x:si>
   <x:si>
-    <x:t>Не удалось создать персону "Законов Сергей Юрьевич".</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Не удалось создать персону "Белоусова Лидия Александровна".</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Не удалось создать персону "Добрынин Никита ".</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Не удалось создать персону "Иванов Иван Иванович".</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Не удалось создать персону "Ивановский Геннадий Александрович".</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Не удалось создать персону "Коломенцев Сергей Петрович".</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Не удалось создать персону "Кондратьев Роман Георгиевич".</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Не удалось создать персону "Кузнецов Михаил Сергеевич".</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Не удалось создать персону "Ложкина Анна Владимировна".</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Не удалось создать персону "Охотникова Елена Сергеевна".</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Не удалось создать персону "Соболева Надежда Николаевна".</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Не удалось создать персону "Сорокин Федор Андреевич".</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Не удалось создать персону "Суворова Екатерина Андреевна".</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Не удалось создать персону "Ардо Наталья Алексеевна".</x:t>
-  </x:si>
-  <x:si>
     <x:t>Загружен частично</x:t>
   </x:si>
   <x:si>
-    <x:t>Компания не может быть импортирована. Некорректный код подразделения. Наименование: "Отдел технического обслуживания", ИНН: Общий отдел ООО Смарт-Сервис. Код подраздленения не должен содержать больше 10 цифр.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Найдено несколько записей с именем "ТехноСистемы ЗАО". Проверьте, что выбрана верная запись.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Найдено несколько записей с именем "Финансово-юридический отдел". Проверьте, что выбрана верная запись.
-Найдено несколько записей с именем "ТехноСистемы ЗАО". Проверьте, что выбрана верная запись.
-Не найдена НОР "ТехноСистемы ЗАО". Наименование подразделения: "Финансово-юридический отдел".</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Найдено несколько записей с именем "Технический отдел". Проверьте, что выбрана верная запись.
-Найдено несколько записей с именем "ТехноСистемы ЗАО". Проверьте, что выбрана верная запись.
-Не найдена НОР "ТехноСистемы ЗАО". Наименование подразделения: "Технический отдел".</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Найдено несколько записей с именем "Служба генерального директора". Проверьте, что выбрана верная запись.
-Найдено несколько записей с именем "ТехноСистемы ЗАО". Проверьте, что выбрана верная запись.
-Не найдена НОР "ТехноСистемы ЗАО". Наименование подразделения: "Служба генерального директора".</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Найдено несколько записей с именем "Отдел снабжения". Проверьте, что выбрана верная запись.
-Найдено несколько записей с именем "ТехноСистемы ЗАО". Проверьте, что выбрана верная запись.
-Не найдена НОР "ТехноСистемы ЗАО". Наименование подразделения: "Отдел снабжения".</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Найдено несколько записей с именем "Отдел продаж". Проверьте, что выбрана верная запись.
-Найдено несколько записей с именем "ТехноСистемы ЗАО". Проверьте, что выбрана верная запись.
-Не найдена НОР "ТехноСистемы ЗАО". Наименование подразделения: "Отдел продаж".</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Найдено несколько записей с именем "Общий отдел ООО Смарт-Сервис". Проверьте, что выбрана верная запись.
-Найдено несколько записей с именем "Смарт-Сервис, ООО". Проверьте, что выбрана верная запись.
-Не найдена НОР "Смарт-Сервис, ООО". Наименование подразделения: "Общий отдел ООО Смарт-Сервис".</x:t>
-  </x:si>
-  <x:si>
-    <x:t>04.10.2022</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Компания не может быть импортирована. Некорректный ИНН. Наименование: "ТехноСистемы ЗАО", ИНН: 183400001. Введите правильное число цифр в ИНН, для организаций - 10, для ИП - 12.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Компания не может быть импортирована. Некорректный ИНН. Наименование: "Смарт-Сервис, ООО", ИНН: 964001000. Введите правильное число цифр в ИНН, для организаций - 10, для ИП - 12.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Не найдена НОР "ТехноСистемы ЗАО". Наименование подразделения: "Финансово-юридический отдел". 
-Не найден Руководитель "Суворова Екатерина Андреевна". Наименование подразделения: "Финансово-юридический отдел". </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Не найдена НОР "ТехноСистемы ЗАО". Наименование подразделения: "Технический отдел". 
-Не найден Руководитель "Коломенцев Сергей Петрович". Наименование подразделения: "Технический отдел". </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Не найдена НОР "ТехноСистемы ЗАО". Наименование подразделения: "Служба генерального директора". 
-Не найден Руководитель "Ивановский Геннадий Александрович". Наименование подразделения: "Служба генерального директора". </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Не найдена НОР "ТехноСистемы ЗАО". Наименование подразделения: "Отдел снабжения". 
-Не найден Руководитель "Кондратьев Роман Георгиевич". Наименование подразделения: "Отдел снабжения". </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Не найдена НОР "ТехноСистемы ЗАО". Наименование подразделения: "Отдел продаж". </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Не найдена НОР "Смарт-Сервис, ООО". Наименование подразделения: "Отдел технического обслуживания". 
-Не найден Руководитель "Белоусова Лидия Александровна". Наименование подразделения: "Отдел технического обслуживания". </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Не найдена НОР "Смарт-Сервис, ООО". Наименование подразделения: "Общий отдел ООО Смарт-Сервис". 
-Не найден Руководитель "Ложкина Анна Владимировна". Наименование подразделения: "Общий отдел ООО Смарт-Сервис". </x:t>
+    <x:t>Не найден Руководитель "Кондратьев Роман Георгиевич". Наименование подразделения: "Отдел снабжения". </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Найдено несколько записей типа сущности "Подразделение" с именем "Отдел продаж". Проверьте, что выбрана верная запись.</x:t>
   </x:si>
 </x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1041,7 +841,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1062,6 +862,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1093,7 +899,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1114,6 +920,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1463,10 +1272,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
-  <x:dimension ref="A1:V3"/>
+  <x:dimension ref="A1:W3"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="E1" workbookViewId="0">
-      <x:selection activeCell="M1" sqref="M1"/>
+    <x:sheetView workbookViewId="0">
+      <x:selection activeCell="A2" sqref="A2:XFD3"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1474,26 +1283,27 @@
     <x:col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
     <x:col min="2" max="2" width="55.28515625" bestFit="1" customWidth="1"/>
     <x:col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
-    <x:col min="4" max="4" width="34.5703125" bestFit="1" customWidth="1"/>
-    <x:col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <x:col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <x:col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
-    <x:col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <x:col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
-    <x:col min="10" max="10" width="23" bestFit="1" customWidth="1"/>
-    <x:col min="11" max="11" width="22.28515625" bestFit="1" customWidth="1"/>
-    <x:col min="12" max="12" width="55.140625" bestFit="1" customWidth="1"/>
-    <x:col min="13" max="13" width="58.85546875" bestFit="1" customWidth="1"/>
-    <x:col min="14" max="15" width="15.140625" bestFit="1" customWidth="1"/>
-    <x:col min="16" max="16" width="21.5703125" bestFit="1" customWidth="1"/>
-    <x:col min="17" max="18" width="17.140625" bestFit="1" customWidth="1"/>
-    <x:col min="19" max="19" width="9.85546875" bestFit="1" customWidth="1"/>
-    <x:col min="20" max="20" width="9.5703125" bestFit="1" customWidth="1"/>
-    <x:col min="21" max="21" width="15.28515625" bestFit="1" customWidth="1"/>
-    <x:col min="22" max="22" width="13.42578125" bestFit="1" customWidth="1"/>
+    <x:col min="4" max="4" width="18.5703125" customWidth="1"/>
+    <x:col min="5" max="5" width="34.5703125" bestFit="1" customWidth="1"/>
+    <x:col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <x:col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+    <x:col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <x:col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <x:col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
+    <x:col min="11" max="11" width="23" bestFit="1" customWidth="1"/>
+    <x:col min="12" max="12" width="22.28515625" bestFit="1" customWidth="1"/>
+    <x:col min="13" max="13" width="55.140625" bestFit="1" customWidth="1"/>
+    <x:col min="14" max="14" width="58.85546875" bestFit="1" customWidth="1"/>
+    <x:col min="15" max="16" width="15.140625" bestFit="1" customWidth="1"/>
+    <x:col min="17" max="17" width="21.5703125" bestFit="1" customWidth="1"/>
+    <x:col min="18" max="19" width="17.140625" bestFit="1" customWidth="1"/>
+    <x:col min="20" max="20" width="9.85546875" bestFit="1" customWidth="1"/>
+    <x:col min="21" max="21" width="9.5703125" bestFit="1" customWidth="1"/>
+    <x:col min="22" max="22" width="15.28515625" bestFit="1" customWidth="1"/>
+    <x:col min="23" max="23" width="13.42578125" bestFit="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <x:row r="1" spans="1:23" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <x:c r="A1" s="2" t="s">
         <x:v>14</x:v>
       </x:c>
@@ -1506,166 +1316,160 @@
       <x:c r="D1" s="1" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="E1" s="3" t="s">
+      <x:c r="E1" s="1" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="F1" s="3" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="F1" s="3" t="s">
+      <x:c r="G1" s="3" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="G1" s="3" t="s">
+      <x:c r="H1" s="3" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="H1" s="3" t="s">
+      <x:c r="I1" s="3" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="I1" s="1" t="s">
+      <x:c r="J1" s="1" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="J1" s="1" t="s">
+      <x:c r="K1" s="1" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="K1" s="1" t="s">
+      <x:c r="L1" s="1" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="L1" s="1" t="s">
+      <x:c r="M1" s="1" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="M1" s="1" t="s">
+      <x:c r="N1" s="1" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="N1" s="1" t="s">
+      <x:c r="O1" s="1" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="O1" s="1" t="s">
+      <x:c r="P1" s="1" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="P1" s="1" t="s">
+      <x:c r="Q1" s="1" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="Q1" s="1" t="s">
+      <x:c r="R1" s="1" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="R1" s="1" t="s">
+      <x:c r="S1" s="1" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="S1" s="1" t="s">
+      <x:c r="T1" s="1" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="T1" s="7" t="s">
-        <x:v>140</x:v>
-      </x:c>
       <x:c r="U1" s="7" t="s">
-        <x:v>140</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="V1" s="7" t="s">
-        <x:v>139</x:v>
-      </x:c>
-      <x:c r="W1" t="s">
-        <x:v>141</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:22" x14ac:dyDescent="0.2">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="W1" s="7" t="s">
+        <x:v>37</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <x:c r="A2" t="s">
-        <x:v>35</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="B2" t="s">
-        <x:v>36</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="D2" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="E2">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="F2">
         <x:v>1834101061</x:v>
       </x:c>
-      <x:c r="F2">
+      <x:c r="G2">
         <x:v>183400001</x:v>
       </x:c>
-      <x:c r="J2" t="s">
-        <x:v>38</x:v>
-      </x:c>
       <x:c r="K2" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="L2" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="M2" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="N2" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="O2" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="P2" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="Q2" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="U2" s="7" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="V2" s="7" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="W2" t="s">
+        <x:v>102</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:23" x14ac:dyDescent="0.2">
+      <x:c r="A3" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="B3" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="C3" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="L2" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="M2" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="N2" t="s">
+      <x:c r="D3" t="s">
         <x:v>41</x:v>
       </x:c>
-      <x:c r="O2" t="s">
+      <x:c r="F3">
+        <x:v>9640773703</x:v>
+      </x:c>
+      <x:c r="G3">
+        <x:v>964001000</x:v>
+      </x:c>
+      <x:c r="H3" s="6">
+        <x:v>1077604011934</x:v>
+      </x:c>
+      <x:c r="K3" t="s">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="P2" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="T2" s="7" t="s">
-        <x:v>143</x:v>
-      </x:c>
-      <x:c r="U2" s="7" t="s">
-        <x:v>142</x:v>
-      </x:c>
-      <x:c r="V2" s="7" t="s">
-        <x:v>169</x:v>
-      </x:c>
-      <x:c r="W2" t="s">
-        <x:v>170</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <x:c r="A3" t="s">
+      <x:c r="L3" t="s">
         <x:v>43</x:v>
       </x:c>
-      <x:c r="B3" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="C3" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="D3" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="E3">
-        <x:v>9640773703</x:v>
-      </x:c>
-      <x:c r="F3">
-        <x:v>964001000</x:v>
-      </x:c>
-      <x:c r="G3" s="6">
-        <x:v>1077604011934</x:v>
-      </x:c>
-      <x:c r="J3" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="K3" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="L3" t="s">
-        <x:v>45</x:v>
-      </x:c>
       <x:c r="M3" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="Q3" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="T3" s="7" t="s">
-        <x:v>160</x:v>
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="N3" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="R3" t="s">
+        <x:v>52</x:v>
       </x:c>
       <x:c r="U3" s="7" t="s">
-        <x:v>142</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="V3" s="7" t="s">
-        <x:v>169</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="W3" t="s">
-        <x:v>171</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:autoFilter ref="A1:V3"/>
+  <x:autoFilter ref="A1:W3"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <x:legacyDrawing r:id="rId2"/>
@@ -1676,8 +1480,8 @@
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:dimension ref="A1:K8"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="D16" sqref="D16"/>
+    <x:sheetView workbookViewId="0">
+      <x:selection activeCell="H4" sqref="H4"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1717,172 +1521,133 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="I1" s="7" t="s">
-        <x:v>140</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="J1" s="7" t="s">
-        <x:v>139</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="K1" s="7" t="s">
-        <x:v>141</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <x:c r="A2" t="s">
-        <x:v>49</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C2" t="s">
-        <x:v>50</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="D2" t="s">
-        <x:v>35</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F2" t="s">
-        <x:v>51</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="I2" s="7" t="s">
-        <x:v>160</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="J2" s="7" t="s">
-        <x:v>169</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="K2" s="7" t="s">
-        <x:v>172</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <x:c r="A3" t="s">
-        <x:v>52</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C3" t="s">
-        <x:v>53</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="D3" t="s">
-        <x:v>35</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F3" t="s">
-        <x:v>54</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="I3" s="7" t="s">
-        <x:v>160</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="J3" s="7" t="s">
-        <x:v>169</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="K3" s="7" t="s">
-        <x:v>173</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <x:c r="A4" t="s">
-        <x:v>55</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C4" t="s">
-        <x:v>56</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D4" t="s">
-        <x:v>35</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F4" t="s">
-        <x:v>37</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="I4" s="7" t="s">
-        <x:v>160</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="J4" s="7" t="s">
-        <x:v>169</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="K4" s="7" t="s">
-        <x:v>174</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <x:c r="A5" t="s">
-        <x:v>57</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="C5" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="D5" t="s">
-        <x:v>35</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F5" t="s">
-        <x:v>59</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="I5" s="7" t="s">
-        <x:v>160</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="J5" s="7" t="s">
-        <x:v>169</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="K5" s="7" t="s">
-        <x:v>175</x:v>
+        <x:v>104</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <x:c r="A6" t="s">
-        <x:v>60</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="D6" t="s">
-        <x:v>35</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="I6" s="7" t="s">
-        <x:v>160</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="J6" s="7" t="s">
-        <x:v>169</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="K6" s="7" t="s">
-        <x:v>176</x:v>
+        <x:v>105</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <x:c r="A7" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="B7" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="D7" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="E7" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="F7" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="I7" s="7" t="s">
-        <x:v>160</x:v>
-      </x:c>
-      <x:c r="J7" s="7" t="s">
-        <x:v>169</x:v>
-      </x:c>
-      <x:c r="K7" s="8" t="s">
-        <x:v>177</x:v>
-      </x:c>
+      <x:c r="I7" s="7"/>
+      <x:c r="J7" s="7"/>
+      <x:c r="K7" s="8"/>
     </x:row>
     <x:row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <x:c r="A8" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="B8" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="D8" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="F8" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="I8" s="7" t="s">
-        <x:v>160</x:v>
-      </x:c>
-      <x:c r="J8" s="7" t="s">
-        <x:v>169</x:v>
-      </x:c>
-      <x:c r="K8" s="7" t="s">
-        <x:v>178</x:v>
-      </x:c>
+      <x:c r="I8" s="7"/>
+      <x:c r="J8" s="7"/>
+      <x:c r="K8" s="7"/>
     </x:row>
   </x:sheetData>
   <x:autoFilter ref="A1:K8"/>
@@ -1896,8 +1661,8 @@
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:dimension ref="A1:V15"/>
   <x:sheetViews>
-    <x:sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <x:selection activeCell="B21" sqref="B21"/>
+    <x:sheetView tabSelected="1" topLeftCell="J1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <x:selection activeCell="O3" sqref="O3"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1925,16 +1690,16 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <x:c r="A1" s="2" t="s">
+      <x:c r="A1" s="9" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="B1" s="4" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="C1" s="2" t="s">
+      <x:c r="C1" s="9" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="D1" s="2" t="s">
+      <x:c r="D1" s="9" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="E1" s="4" t="s">
@@ -1983,158 +1748,158 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="T1" s="7" t="s">
-        <x:v>140</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="U1" s="7" t="s">
-        <x:v>139</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="V1" s="7" t="s">
-        <x:v>141</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <x:c r="A2" t="s">
-        <x:v>49</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="B2" t="s">
-        <x:v>84</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C2" t="s">
-        <x:v>81</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="D2" t="s">
-        <x:v>82</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="E2" t="s">
-        <x:v>83</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="F2" t="s">
-        <x:v>79</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="G2" t="s">
-        <x:v>85</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="S2" t="s">
-        <x:v>86</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="T2" s="7" t="s">
-        <x:v>143</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="U2" s="7" t="s">
-        <x:v>169</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="V2" s="7" t="s">
-        <x:v>145</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <x:c r="A3" t="s">
-        <x:v>61</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="B3" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="C3" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="D3" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="E3" t="s">
         <x:v>76</x:v>
       </x:c>
-      <x:c r="C3" t="s">
-        <x:v>73</x:v>
-      </x:c>
-      <x:c r="D3" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="E3" t="s">
-        <x:v>75</x:v>
-      </x:c>
       <x:c r="F3" t="s">
-        <x:v>71</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="T3" s="7" t="s">
-        <x:v>143</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="U3" s="7" t="s">
-        <x:v>169</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="V3" s="7" t="s">
-        <x:v>145</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <x:c r="A4" t="s">
-        <x:v>49</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C4" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D4" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="F4" t="s">
-        <x:v>79</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="O4" t="s">
         <x:v>80</x:v>
       </x:c>
       <x:c r="T4" s="7" t="s">
-        <x:v>143</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="U4" s="7" t="s">
-        <x:v>169</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="V4" s="7" t="s">
-        <x:v>145</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <x:c r="A5" t="s">
-        <x:v>52</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="B5" t="s">
-        <x:v>90</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="C5" t="s">
-        <x:v>87</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="D5" t="s">
-        <x:v>88</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="E5" t="s">
-        <x:v>89</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="F5" t="s">
-        <x:v>79</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="O5" t="s">
-        <x:v>91</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="T5" s="7" t="s">
-        <x:v>143</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="U5" s="7" t="s">
-        <x:v>169</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="V5" s="7" t="s">
-        <x:v>145</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <x:c r="A6" t="s">
-        <x:v>55</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="B6" t="s">
-        <x:v>95</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="C6" t="s">
-        <x:v>92</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="D6" t="s">
-        <x:v>93</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E6" t="s">
-        <x:v>94</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F6" t="s">
-        <x:v>79</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="G6" t="s">
-        <x:v>96</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="H6" s="6">
         <x:v>330500938709</x:v>
@@ -2143,317 +1908,104 @@
         <x:v>16530018028</x:v>
       </x:c>
       <x:c r="J6" t="s">
-        <x:v>97</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="K6" t="s">
-        <x:v>98</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="L6" t="s">
-        <x:v>99</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="N6" t="s">
-        <x:v>100</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="Q6" t="s">
-        <x:v>101</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="R6" s="6">
         <x:v>4.0817810099910001E+19</x:v>
       </x:c>
       <x:c r="T6" s="7" t="s">
-        <x:v>143</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="U6" s="7" t="s">
-        <x:v>169</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="V6" s="7" t="s">
-        <x:v>145</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <x:c r="A7" t="s">
-        <x:v>52</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="B7" t="s">
-        <x:v>104</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="C7" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="D7" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="E7" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="F7" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="G7" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="T7" s="7" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="U7" s="7" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="V7" s="7" t="s">
         <x:v>102</x:v>
       </x:c>
-      <x:c r="D7" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="E7" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="F7" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="G7" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="T7" s="7" t="s">
-        <x:v>143</x:v>
-      </x:c>
-      <x:c r="U7" s="7" t="s">
-        <x:v>169</x:v>
-      </x:c>
-      <x:c r="V7" s="7" t="s">
-        <x:v>145</x:v>
-      </x:c>
     </x:row>
     <x:row r="8" spans="1:22" x14ac:dyDescent="0.2">
-      <x:c r="A8" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="B8" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="C8" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="D8" t="s">
-        <x:v>107</x:v>
-      </x:c>
-      <x:c r="E8" t="s">
-        <x:v>108</x:v>
-      </x:c>
-      <x:c r="F8" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="G8" t="s">
-        <x:v>110</x:v>
-      </x:c>
-      <x:c r="O8" t="s">
-        <x:v>111</x:v>
-      </x:c>
-      <x:c r="T8" s="7" t="s">
-        <x:v>143</x:v>
-      </x:c>
-      <x:c r="U8" s="7" t="s">
-        <x:v>169</x:v>
-      </x:c>
-      <x:c r="V8" s="7" t="s">
-        <x:v>145</x:v>
-      </x:c>
+      <x:c r="T8" s="7"/>
+      <x:c r="U8" s="7"/>
+      <x:c r="V8" s="7"/>
     </x:row>
     <x:row r="9" spans="1:22" x14ac:dyDescent="0.2">
-      <x:c r="A9" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="B9" t="s">
-        <x:v>115</x:v>
-      </x:c>
-      <x:c r="C9" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="D9" t="s">
-        <x:v>113</x:v>
-      </x:c>
-      <x:c r="E9" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="F9" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="T9" s="7" t="s">
-        <x:v>143</x:v>
-      </x:c>
-      <x:c r="U9" s="7" t="s">
-        <x:v>169</x:v>
-      </x:c>
-      <x:c r="V9" s="7" t="s">
-        <x:v>145</x:v>
-      </x:c>
+      <x:c r="T9" s="7"/>
+      <x:c r="U9" s="7"/>
+      <x:c r="V9" s="7"/>
     </x:row>
     <x:row r="10" spans="1:22" x14ac:dyDescent="0.2">
-      <x:c r="A10" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="B10" t="s">
-        <x:v>119</x:v>
-      </x:c>
-      <x:c r="C10" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="D10" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="E10" t="s">
-        <x:v>118</x:v>
-      </x:c>
-      <x:c r="F10" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="T10" s="7" t="s">
-        <x:v>143</x:v>
-      </x:c>
-      <x:c r="U10" s="7" t="s">
-        <x:v>169</x:v>
-      </x:c>
-      <x:c r="V10" s="7" t="s">
-        <x:v>145</x:v>
-      </x:c>
+      <x:c r="T10" s="7"/>
+      <x:c r="U10" s="7"/>
+      <x:c r="V10" s="7"/>
     </x:row>
     <x:row r="11" spans="1:22" x14ac:dyDescent="0.2">
-      <x:c r="A11" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="B11" t="s">
-        <x:v>123</x:v>
-      </x:c>
-      <x:c r="C11" t="s">
-        <x:v>120</x:v>
-      </x:c>
-      <x:c r="D11" t="s">
-        <x:v>121</x:v>
-      </x:c>
-      <x:c r="E11" t="s">
-        <x:v>122</x:v>
-      </x:c>
-      <x:c r="F11" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="G11" t="s">
-        <x:v>124</x:v>
-      </x:c>
-      <x:c r="T11" s="7" t="s">
-        <x:v>143</x:v>
-      </x:c>
-      <x:c r="U11" s="7" t="s">
-        <x:v>169</x:v>
-      </x:c>
-      <x:c r="V11" s="7" t="s">
-        <x:v>145</x:v>
-      </x:c>
+      <x:c r="T11" s="7"/>
+      <x:c r="U11" s="7"/>
+      <x:c r="V11" s="7"/>
     </x:row>
     <x:row r="12" spans="1:22" x14ac:dyDescent="0.2">
-      <x:c r="A12" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="B12" t="s">
-        <x:v>128</x:v>
-      </x:c>
-      <x:c r="C12" t="s">
-        <x:v>125</x:v>
-      </x:c>
-      <x:c r="D12" t="s">
-        <x:v>126</x:v>
-      </x:c>
-      <x:c r="E12" t="s">
-        <x:v>127</x:v>
-      </x:c>
-      <x:c r="F12" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="G12" t="s">
-        <x:v>129</x:v>
-      </x:c>
-      <x:c r="T12" s="7" t="s">
-        <x:v>143</x:v>
-      </x:c>
-      <x:c r="U12" s="7" t="s">
-        <x:v>169</x:v>
-      </x:c>
-      <x:c r="V12" s="7" t="s">
-        <x:v>145</x:v>
-      </x:c>
+      <x:c r="T12" s="7"/>
+      <x:c r="U12" s="7"/>
+      <x:c r="V12" s="7"/>
     </x:row>
     <x:row r="13" spans="1:22" x14ac:dyDescent="0.2">
-      <x:c r="A13" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="B13" t="s">
-        <x:v>119</x:v>
-      </x:c>
-      <x:c r="C13" t="s">
-        <x:v>130</x:v>
-      </x:c>
-      <x:c r="D13" t="s">
-        <x:v>131</x:v>
-      </x:c>
-      <x:c r="E13" t="s">
-        <x:v>132</x:v>
-      </x:c>
-      <x:c r="F13" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="O13" t="s">
-        <x:v>133</x:v>
-      </x:c>
-      <x:c r="T13" s="7" t="s">
-        <x:v>143</x:v>
-      </x:c>
-      <x:c r="U13" s="7" t="s">
-        <x:v>169</x:v>
-      </x:c>
-      <x:c r="V13" s="7" t="s">
-        <x:v>145</x:v>
-      </x:c>
+      <x:c r="T13" s="7"/>
+      <x:c r="U13" s="7"/>
+      <x:c r="V13" s="7"/>
     </x:row>
     <x:row r="14" spans="1:22" x14ac:dyDescent="0.2">
-      <x:c r="A14" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="B14" t="s">
-        <x:v>137</x:v>
-      </x:c>
-      <x:c r="C14" t="s">
-        <x:v>134</x:v>
-      </x:c>
-      <x:c r="D14" t="s">
-        <x:v>135</x:v>
-      </x:c>
-      <x:c r="E14" t="s">
-        <x:v>136</x:v>
-      </x:c>
-      <x:c r="F14" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="G14" t="s">
-        <x:v>138</x:v>
-      </x:c>
-      <x:c r="T14" s="7" t="s">
-        <x:v>143</x:v>
-      </x:c>
-      <x:c r="U14" s="7" t="s">
-        <x:v>169</x:v>
-      </x:c>
-      <x:c r="V14" s="7" t="s">
-        <x:v>145</x:v>
-      </x:c>
+      <x:c r="T14" s="7"/>
+      <x:c r="U14" s="7"/>
+      <x:c r="V14" s="7"/>
     </x:row>
     <x:row r="15" spans="1:22" x14ac:dyDescent="0.2">
-      <x:c r="A15" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="B15" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="C15" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="D15" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="E15" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="F15" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="G15" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="T15" s="7" t="s">
-        <x:v>143</x:v>
-      </x:c>
-      <x:c r="U15" s="7" t="s">
-        <x:v>169</x:v>
-      </x:c>
-      <x:c r="V15" s="7" t="s">
-        <x:v>145</x:v>
-      </x:c>
+      <x:c r="T15" s="7"/>
+      <x:c r="U15" s="7"/>
+      <x:c r="V15" s="7"/>
     </x:row>
   </x:sheetData>
   <x:autoFilter ref="A1:V16"/>
